--- a/data/BppTrend/Valid_Import_Files/2022_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/Valid_Import_Files/2022_Trend_Factors_Calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DDeepika\APAS_Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DDeepika\Desktop\BPP_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BD3BC-C2C2-4A9E-8C84-8A1B48460792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053A09D-1D54-4F48-827D-0838E8D8CEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" tabRatio="920" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" tabRatio="920" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trends Settings " sheetId="21" r:id="rId1"/>
@@ -20,22 +20,22 @@
     <sheet name="Construction Composite" sheetId="23" r:id="rId5"/>
     <sheet name="Ag Mobile Equip Composite" sheetId="26" r:id="rId6"/>
     <sheet name="Construction Mobile Composite" sheetId="16" r:id="rId7"/>
-    <sheet name="2019 CPI" sheetId="12" r:id="rId8"/>
-    <sheet name="2019 Equip Index Factors" sheetId="3" r:id="rId9"/>
+    <sheet name="2022 CPI" sheetId="12" r:id="rId8"/>
+    <sheet name="2022 Equip Index Factors" sheetId="3" r:id="rId9"/>
     <sheet name="M&amp;E Property Good Factor" sheetId="6" r:id="rId10"/>
-    <sheet name="2019 Agricultural % Good" sheetId="4" r:id="rId11"/>
-    <sheet name="2019 Construction % Good" sheetId="5" r:id="rId12"/>
+    <sheet name="2022 Agricultural % Good" sheetId="4" r:id="rId11"/>
+    <sheet name="2022 Construction % Good" sheetId="5" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="CalcTable">[1]ValueTable!$A$5:$AC$50</definedName>
-    <definedName name="Factor_to_Year">'2019 CPI'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'2019 Agricultural % Good'!$A$1:$I$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'2019 Construction % Good'!$A$1:$H$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'2019 CPI'!$A$1:$D$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'2019 Equip Index Factors'!$A$1:$F$42</definedName>
+    <definedName name="Factor_to_Year">'2022 CPI'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2022 Agricultural % Good'!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2022 Construction % Good'!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'2022 CPI'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'2022 Equip Index Factors'!$A$1:$F$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Construction Mobile Composite'!$A$1:$E$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'M&amp;E Property Good Factor'!$A$1:$W$42</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="123">
   <si>
     <t xml:space="preserve">Maximum Index Factor </t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>1982</t>
+  </si>
+  <si>
+    <t>1/1-12/31/2020</t>
+  </si>
+  <si>
+    <t>1/1-12/31/2021</t>
   </si>
 </sst>
 </file>
@@ -3554,7 +3560,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7145,7 +7151,7 @@
   </sheetPr>
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A42"/>
     </sheetView>
   </sheetViews>
@@ -7825,7 +7831,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16331,8 +16337,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -17064,8 +17070,8 @@
         <v>1.02</v>
       </c>
       <c r="D2" s="44">
-        <f t="shared" ref="D2:D38" si="0">TRUNC(IF(C2,(D3*C2),""),5)</f>
-        <v>1.99048</v>
+        <f t="shared" ref="D2:D42" si="0">TRUNC(IF(C2,(D3*C2),""),5)</f>
+        <v>2.05057</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17080,7 +17086,7 @@
       </c>
       <c r="D3" s="44">
         <f t="shared" si="0"/>
-        <v>1.95146</v>
+        <v>2.01037</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17095,7 +17101,7 @@
       </c>
       <c r="D4" s="44">
         <f t="shared" si="0"/>
-        <v>1.9132</v>
+        <v>1.97096</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17110,7 +17116,7 @@
       </c>
       <c r="D5" s="44">
         <f t="shared" si="0"/>
-        <v>1.8942600000000001</v>
+        <v>1.9514499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17125,7 +17131,7 @@
       </c>
       <c r="D6" s="44">
         <f t="shared" si="0"/>
-        <v>1.8571200000000001</v>
+        <v>1.9131899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -17140,7 +17146,7 @@
       </c>
       <c r="D7" s="44">
         <f t="shared" si="0"/>
-        <v>1.8207100000000001</v>
+        <v>1.87568</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -17155,7 +17161,7 @@
       </c>
       <c r="D8" s="44">
         <f t="shared" si="0"/>
-        <v>1.78501</v>
+        <v>1.83891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17170,7 +17176,7 @@
       </c>
       <c r="D9" s="44">
         <f t="shared" si="0"/>
-        <v>1.7500100000000001</v>
+        <v>1.8028599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -17185,7 +17191,7 @@
       </c>
       <c r="D10" s="44">
         <f t="shared" si="0"/>
-        <v>1.7157</v>
+        <v>1.7675099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -17200,7 +17206,7 @@
       </c>
       <c r="D11" s="44">
         <f t="shared" si="0"/>
-        <v>1.6820600000000001</v>
+        <v>1.7328600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -17215,7 +17221,7 @@
       </c>
       <c r="D12" s="44">
         <f t="shared" si="0"/>
-        <v>1.6490800000000001</v>
+        <v>1.69889</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17230,7 +17236,7 @@
       </c>
       <c r="D13" s="44">
         <f t="shared" si="0"/>
-        <v>1.6167499999999999</v>
+        <v>1.6655800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -17245,7 +17251,7 @@
       </c>
       <c r="D14" s="44">
         <f t="shared" si="0"/>
-        <v>1.5850500000000001</v>
+        <v>1.63293</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -17260,7 +17266,7 @@
       </c>
       <c r="D15" s="44">
         <f t="shared" si="0"/>
-        <v>1.5539799999999999</v>
+        <v>1.6009199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -17275,7 +17281,7 @@
       </c>
       <c r="D16" s="44">
         <f t="shared" si="0"/>
-        <v>1.5235099999999999</v>
+        <v>1.5695300000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17290,7 +17296,7 @@
       </c>
       <c r="D17" s="44">
         <f t="shared" si="0"/>
-        <v>1.5056</v>
+        <v>1.55108</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17305,7 +17311,7 @@
       </c>
       <c r="D18" s="44">
         <f t="shared" si="0"/>
-        <v>1.48908</v>
+        <v>1.53406</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -17320,7 +17326,7 @@
       </c>
       <c r="D19" s="44">
         <f t="shared" si="0"/>
-        <v>1.4598899999999999</v>
+        <v>1.5039899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17335,7 +17341,7 @@
       </c>
       <c r="D20" s="44">
         <f t="shared" si="0"/>
-        <v>1.43127</v>
+        <v>1.4744999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17350,7 +17356,7 @@
       </c>
       <c r="D21" s="44">
         <f t="shared" si="0"/>
-        <v>1.40524</v>
+        <v>1.4476800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17365,7 +17371,7 @@
       </c>
       <c r="D22" s="44">
         <f t="shared" si="0"/>
-        <v>1.3776900000000001</v>
+        <v>1.4193</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -17380,7 +17386,7 @@
       </c>
       <c r="D23" s="44">
         <f t="shared" si="0"/>
-        <v>1.3506800000000001</v>
+        <v>1.3914800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -17395,7 +17401,7 @@
       </c>
       <c r="D24" s="44">
         <f t="shared" si="0"/>
-        <v>1.3242</v>
+        <v>1.3642000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -17410,7 +17416,7 @@
       </c>
       <c r="D25" s="44">
         <f t="shared" si="0"/>
-        <v>1.2982400000000001</v>
+        <v>1.3374600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -17425,7 +17431,7 @@
       </c>
       <c r="D26" s="44">
         <f t="shared" si="0"/>
-        <v>1.2744500000000001</v>
+        <v>1.3129500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -17440,7 +17446,7 @@
       </c>
       <c r="D27" s="44">
         <f t="shared" si="0"/>
-        <v>1.2494700000000001</v>
+        <v>1.28721</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -17455,7 +17461,7 @@
       </c>
       <c r="D28" s="44">
         <f t="shared" si="0"/>
-        <v>1.22498</v>
+        <v>1.2619800000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -17470,7 +17476,7 @@
       </c>
       <c r="D29" s="44">
         <f t="shared" si="0"/>
-        <v>1.2009700000000001</v>
+        <v>1.2372399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -17485,7 +17491,7 @@
       </c>
       <c r="D30" s="44">
         <f t="shared" si="0"/>
-        <v>1.17743</v>
+        <v>1.21299</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17500,7 +17506,7 @@
       </c>
       <c r="D31" s="44">
         <f t="shared" si="0"/>
-        <v>1.15435</v>
+        <v>1.1892100000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -17515,7 +17521,7 @@
       </c>
       <c r="D32" s="44">
         <f>TRUNC(IF(C32,(D33*C32),""),5)</f>
-        <v>1.1571</v>
+        <v>1.19204</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -17530,7 +17536,7 @@
       </c>
       <c r="D33" s="44">
         <f t="shared" si="0"/>
-        <v>1.14846</v>
+        <v>1.1831400000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -17545,7 +17551,7 @@
       </c>
       <c r="D34" s="44">
         <f t="shared" si="0"/>
-        <v>1.12595</v>
+        <v>1.15995</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -17560,7 +17566,7 @@
       </c>
       <c r="D35" s="44">
         <f t="shared" si="0"/>
-        <v>1.10388</v>
+        <v>1.1372100000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -17575,7 +17581,7 @@
       </c>
       <c r="D36" s="44">
         <f t="shared" si="0"/>
-        <v>1.0989</v>
+        <v>1.13208</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -17590,7 +17596,7 @@
       </c>
       <c r="D37" s="44">
         <f>TRUNC(IF(C37,(D38*C37),""),5)</f>
-        <v>1.07738</v>
+        <v>1.10991</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -17605,7 +17611,7 @@
       </c>
       <c r="D38" s="44">
         <f t="shared" si="0"/>
-        <v>1.0611999999999999</v>
+        <v>1.09324</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -17620,7 +17626,7 @@
       </c>
       <c r="D39" s="44">
         <f>TRUNC(IF(C39,(D40*C39),"0"),5)</f>
-        <v>1.0404</v>
+        <v>1.0718099999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -17635,27 +17641,55 @@
       </c>
       <c r="D40" s="44">
         <f>TRUNC(IF(C40,(D41*C40),"0"),5)</f>
-        <v>1.02</v>
+        <v>1.0508</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="26">
         <v>2019</v>
       </c>
       <c r="C41" s="28">
+        <v>1.01</v>
+      </c>
+      <c r="D41" s="28">
+        <f t="shared" ref="D41:D43" si="1">TRUNC(IF(C41,(D42*C41),""),5)</f>
+        <v>1.0302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C42" s="28">
         <v>1.02</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D42" s="28">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="D43" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="61"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="0" top="1" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17668,19 +17702,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9256" r:id="rId4" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17688,24 +17722,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9217" r:id="rId4" name="Control 1"/>
+        <control shapeId="9256" r:id="rId4" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9255" r:id="rId6" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17713,24 +17747,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9218" r:id="rId6" name="Control 2"/>
+        <control shapeId="9255" r:id="rId6" name="Control 39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9254" r:id="rId8" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17738,24 +17772,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9219" r:id="rId7" name="Control 3"/>
+        <control shapeId="9254" r:id="rId8" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9253" r:id="rId9" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17763,24 +17797,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9220" r:id="rId8" name="Control 4"/>
+        <control shapeId="9253" r:id="rId9" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9221" r:id="rId9" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9252" r:id="rId10" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17788,24 +17822,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9221" r:id="rId9" name="Control 5"/>
+        <control shapeId="9252" r:id="rId10" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9222" r:id="rId10" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9251" r:id="rId11" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17813,24 +17847,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9222" r:id="rId10" name="Control 6"/>
+        <control shapeId="9251" r:id="rId11" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9223" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9250" r:id="rId12" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17838,24 +17872,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9223" r:id="rId11" name="Control 7"/>
+        <control shapeId="9250" r:id="rId12" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9224" r:id="rId12" name="Control 8">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9249" r:id="rId13" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17863,24 +17897,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9224" r:id="rId12" name="Control 8"/>
+        <control shapeId="9249" r:id="rId13" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9225" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9248" r:id="rId14" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17888,24 +17922,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9225" r:id="rId13" name="Control 9"/>
+        <control shapeId="9248" r:id="rId14" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9226" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9247" r:id="rId15" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17913,24 +17947,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9226" r:id="rId14" name="Control 10"/>
+        <control shapeId="9247" r:id="rId15" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9227" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9246" r:id="rId16" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17938,24 +17972,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9227" r:id="rId15" name="Control 11"/>
+        <control shapeId="9246" r:id="rId16" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9228" r:id="rId16" name="Control 12">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9245" r:id="rId17" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17963,24 +17997,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9228" r:id="rId16" name="Control 12"/>
+        <control shapeId="9245" r:id="rId17" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9229" r:id="rId17" name="Control 13">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9244" r:id="rId18" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -17988,24 +18022,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9229" r:id="rId17" name="Control 13"/>
+        <control shapeId="9244" r:id="rId18" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9230" r:id="rId18" name="Control 14">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9243" r:id="rId19" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18013,24 +18047,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9230" r:id="rId18" name="Control 14"/>
+        <control shapeId="9243" r:id="rId19" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9231" r:id="rId19" name="Control 15">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9242" r:id="rId20" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18038,24 +18072,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9231" r:id="rId19" name="Control 15"/>
+        <control shapeId="9242" r:id="rId20" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9232" r:id="rId20" name="Control 16">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9241" r:id="rId21" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18063,24 +18097,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9232" r:id="rId20" name="Control 16"/>
+        <control shapeId="9241" r:id="rId21" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9233" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9240" r:id="rId22" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18088,24 +18122,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9233" r:id="rId21" name="Control 17"/>
+        <control shapeId="9240" r:id="rId22" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9234" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9239" r:id="rId23" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18113,24 +18147,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9234" r:id="rId22" name="Control 18"/>
+        <control shapeId="9239" r:id="rId23" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9235" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9238" r:id="rId24" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18138,38 +18172,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9235" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9236" r:id="rId24" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9236" r:id="rId24" name="Control 20"/>
+        <control shapeId="9238" r:id="rId24" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="9237" r:id="rId25" name="Control 21">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -18193,19 +18202,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9238" r:id="rId26" name="Control 22">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9236" r:id="rId26" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18213,24 +18222,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9238" r:id="rId26" name="Control 22"/>
+        <control shapeId="9236" r:id="rId26" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9239" r:id="rId27" name="Control 23">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9235" r:id="rId27" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18238,24 +18247,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9239" r:id="rId27" name="Control 23"/>
+        <control shapeId="9235" r:id="rId27" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9240" r:id="rId28" name="Control 24">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9234" r:id="rId28" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18263,24 +18272,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9240" r:id="rId28" name="Control 24"/>
+        <control shapeId="9234" r:id="rId28" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9241" r:id="rId29" name="Control 25">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9233" r:id="rId29" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18288,24 +18297,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9241" r:id="rId29" name="Control 25"/>
+        <control shapeId="9233" r:id="rId29" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9242" r:id="rId30" name="Control 26">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9232" r:id="rId30" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18313,24 +18322,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9242" r:id="rId30" name="Control 26"/>
+        <control shapeId="9232" r:id="rId30" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9243" r:id="rId31" name="Control 27">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9231" r:id="rId31" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18338,24 +18347,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9243" r:id="rId31" name="Control 27"/>
+        <control shapeId="9231" r:id="rId31" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9244" r:id="rId32" name="Control 28">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9230" r:id="rId32" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18363,24 +18372,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9244" r:id="rId32" name="Control 28"/>
+        <control shapeId="9230" r:id="rId32" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9245" r:id="rId33" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9229" r:id="rId33" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18388,24 +18397,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9245" r:id="rId33" name="Control 29"/>
+        <control shapeId="9229" r:id="rId33" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9246" r:id="rId34" name="Control 30">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9228" r:id="rId34" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18413,24 +18422,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9246" r:id="rId34" name="Control 30"/>
+        <control shapeId="9228" r:id="rId34" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9247" r:id="rId35" name="Control 31">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9227" r:id="rId35" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18438,24 +18447,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9247" r:id="rId35" name="Control 31"/>
+        <control shapeId="9227" r:id="rId35" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9248" r:id="rId36" name="Control 32">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9226" r:id="rId36" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18463,24 +18472,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9248" r:id="rId36" name="Control 32"/>
+        <control shapeId="9226" r:id="rId36" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9249" r:id="rId37" name="Control 33">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9225" r:id="rId37" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18488,24 +18497,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9249" r:id="rId37" name="Control 33"/>
+        <control shapeId="9225" r:id="rId37" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9250" r:id="rId38" name="Control 34">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9224" r:id="rId38" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18513,24 +18522,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9250" r:id="rId38" name="Control 34"/>
+        <control shapeId="9224" r:id="rId38" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9251" r:id="rId39" name="Control 35">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9223" r:id="rId39" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18538,24 +18547,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9251" r:id="rId39" name="Control 35"/>
+        <control shapeId="9223" r:id="rId39" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9252" r:id="rId40" name="Control 36">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9222" r:id="rId40" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18563,24 +18572,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9252" r:id="rId40" name="Control 36"/>
+        <control shapeId="9222" r:id="rId40" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9253" r:id="rId41" name="Control 37">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9221" r:id="rId41" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18588,24 +18597,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9253" r:id="rId41" name="Control 37"/>
+        <control shapeId="9221" r:id="rId41" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9254" r:id="rId42" name="Control 38">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9220" r:id="rId42" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18613,24 +18622,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9254" r:id="rId42" name="Control 38"/>
+        <control shapeId="9220" r:id="rId42" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9255" r:id="rId43" name="Control 39">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="9219" r:id="rId43" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18638,24 +18647,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9255" r:id="rId43" name="Control 39"/>
+        <control shapeId="9219" r:id="rId43" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9256" r:id="rId44" name="Control 40">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId45">
+        <control shapeId="9218" r:id="rId44" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -18663,7 +18672,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9256" r:id="rId44" name="Control 40"/>
+        <control shapeId="9218" r:id="rId44" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9217" r:id="rId45" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9217" r:id="rId45" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20397,6 +20431,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -20613,15 +20656,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20629,6 +20663,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20647,14 +20689,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
   <ds:schemaRefs>
